--- a/LimitingPotentialToyExample.xlsx
+++ b/LimitingPotentialToyExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brohr/Documents/Stanford/CHE_444_TA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brohr/Documents/Stanford/CHE_444_TA/brohr.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="-16600" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORR" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>O2 + * + 4[proton-electron pairs]</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>More Realistic Case</t>
+  </si>
+  <si>
+    <t>Limiting Potential</t>
+  </si>
+  <si>
+    <t>Overpotential</t>
   </si>
 </sst>
 </file>
@@ -268,11 +274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116285504"/>
-        <c:axId val="-2118407472"/>
+        <c:axId val="-2077840864"/>
+        <c:axId val="-2077956560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116285504"/>
+        <c:axId val="-2077840864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,12 +391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118407472"/>
+        <c:crossAx val="-2077956560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118407472"/>
+        <c:axId val="-2077956560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116285504"/>
+        <c:crossAx val="-2077840864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -666,28 +672,28 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.53</c:v>
+                  <c:v>-1.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.53</c:v>
+                  <c:v>-1.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.183</c:v>
+                  <c:v>-2.583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.183</c:v>
+                  <c:v>-2.583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.082</c:v>
+                  <c:v>-4.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.082</c:v>
+                  <c:v>-4.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.12</c:v>
+                  <c:v>-4.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.12</c:v>
+                  <c:v>-4.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,11 +708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120700944"/>
-        <c:axId val="-2120434464"/>
+        <c:axId val="-2097656208"/>
+        <c:axId val="2108144384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120700944"/>
+        <c:axId val="-2097656208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,12 +825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120434464"/>
+        <c:crossAx val="2108144384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120434464"/>
+        <c:axId val="2108144384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120700944"/>
+        <c:crossAx val="-2097656208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,28 +1106,28 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,11 +1142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103968736"/>
-        <c:axId val="-2104046240"/>
+        <c:axId val="-2136836448"/>
+        <c:axId val="-2136098032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103968736"/>
+        <c:axId val="-2136836448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,12 +1259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104046240"/>
+        <c:crossAx val="-2136098032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104046240"/>
+        <c:axId val="-2136098032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103968736"/>
+        <c:crossAx val="-2136836448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,28 +1540,28 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.37</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.37</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.617</c:v>
+                  <c:v>2.583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.617</c:v>
+                  <c:v>2.583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.618000000000001</c:v>
+                  <c:v>4.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.618000000000001</c:v>
+                  <c:v>4.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.48</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.48</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,11 +1576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2131184656"/>
-        <c:axId val="-2131165760"/>
+        <c:axId val="2110728816"/>
+        <c:axId val="2110258496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2131184656"/>
+        <c:axId val="2110728816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,12 +1693,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131165760"/>
+        <c:crossAx val="2110258496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131165760"/>
+        <c:axId val="2110258496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131184656"/>
+        <c:crossAx val="2110728816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4483,412 +4489,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>C5+B5*B$2</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>-0.5</v>
-      </c>
-      <c r="G5">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>-1.23</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">C6+B6*B$2</f>
-        <v>-1.23</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f>C6*2</f>
-        <v>-2.46</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-2.46</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <f>D6</f>
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f>C6*3</f>
-        <v>-3.69</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-3.69</v>
-      </c>
-      <c r="F8">
-        <v>1.5</v>
-      </c>
-      <c r="G8">
-        <f>D6</f>
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <f>C6*4</f>
-        <v>-4.92</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-4.92</v>
-      </c>
-      <c r="F9">
-        <v>1.5</v>
-      </c>
-      <c r="G9">
-        <f>D7</f>
-        <v>-2.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <v>2.5</v>
-      </c>
-      <c r="G10">
-        <f>D7</f>
-        <v>-2.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11">
-        <v>2.5</v>
-      </c>
-      <c r="G11">
-        <f>D8</f>
-        <v>-3.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12">
-        <v>3.5</v>
-      </c>
-      <c r="G12">
-        <f>D8</f>
-        <v>-3.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13">
-        <v>3.5</v>
-      </c>
-      <c r="G13">
-        <f>D9</f>
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14">
-        <f>D9</f>
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f>C22+B22*B$19</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>-0.5</v>
-      </c>
-      <c r="G22">
-        <f>D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>-1.23</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D26" si="1">C23+B23*B$19</f>
-        <v>-0.53</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23">
-        <f>D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <f>C23*2.1</f>
-        <v>-2.5830000000000002</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>-1.1830000000000003</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24">
-        <f>D23</f>
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <f>C23*3.4</f>
-        <v>-4.1819999999999995</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>-2.0819999999999999</v>
-      </c>
-      <c r="F25">
-        <v>1.5</v>
-      </c>
-      <c r="G25">
-        <f>D23</f>
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <f>C23*4</f>
-        <v>-4.92</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>-2.12</v>
-      </c>
-      <c r="F26">
-        <v>1.5</v>
-      </c>
-      <c r="G26">
-        <f>D24</f>
-        <v>-1.1830000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27">
-        <v>2.5</v>
-      </c>
-      <c r="G27">
-        <f>D24</f>
-        <v>-1.1830000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <v>2.5</v>
-      </c>
-      <c r="G28">
-        <f>D25</f>
-        <v>-2.0819999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <v>3.5</v>
-      </c>
-      <c r="G29">
-        <f>D25</f>
-        <v>-2.0819999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30">
-        <v>3.5</v>
-      </c>
-      <c r="G30">
-        <f>D26</f>
-        <v>-2.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F31">
-        <v>4.5</v>
-      </c>
-      <c r="G31">
-        <f>D26</f>
-        <v>-2.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -4913,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4938,6 +4538,440 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>C5+B5*B$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.5</v>
+      </c>
+      <c r="G5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1.23</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D9" si="0">C6+B6*B$2</f>
+        <v>-1.23</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>C6*2</f>
+        <v>-2.46</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-2.46</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f>D6</f>
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>C6*3</f>
+        <v>-3.69</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-3.69</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <f>D6</f>
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>C6*4</f>
+        <v>-4.92</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-4.92</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <f>D7</f>
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+      <c r="G10">
+        <f>D7</f>
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <f>D8</f>
+        <v>-3.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>C7-C8</f>
+        <v>1.23</v>
+      </c>
+      <c r="F12">
+        <v>3.5</v>
+      </c>
+      <c r="G12">
+        <f>D8</f>
+        <v>-3.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f>B12-1.23</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3.5</v>
+      </c>
+      <c r="G13">
+        <f>D9</f>
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14">
+        <f>D9</f>
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>C22+B22*B$19</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-0.5</v>
+      </c>
+      <c r="G22">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>-1.23</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D26" si="1">C23+B23*B$19</f>
+        <v>-1.23</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f>C23*2.1</f>
+        <v>-2.5830000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-2.5830000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <f>D23</f>
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>C23*3.4</f>
+        <v>-4.1819999999999995</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-4.1819999999999995</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+      <c r="G25">
+        <f>D23</f>
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>C23*4</f>
+        <v>-4.92</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-4.92</v>
+      </c>
+      <c r="F26">
+        <v>1.5</v>
+      </c>
+      <c r="G26">
+        <f>D24</f>
+        <v>-2.5830000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>2.5</v>
+      </c>
+      <c r="G27">
+        <f>D24</f>
+        <v>-2.5830000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <f>D25</f>
+        <v>-4.1819999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f>C24-C25</f>
+        <v>1.5989999999999993</v>
+      </c>
+      <c r="F29">
+        <v>3.5</v>
+      </c>
+      <c r="G29">
+        <f>D25</f>
+        <v>-4.1819999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f>B29-1.23</f>
+        <v>0.36899999999999933</v>
+      </c>
+      <c r="F30">
+        <v>3.5</v>
+      </c>
+      <c r="G30">
+        <f>D26</f>
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>4.5</v>
+      </c>
+      <c r="G31">
+        <f>D26</f>
+        <v>-4.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -4970,7 +5004,7 @@
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D9" si="0">C6-B6*B$2</f>
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -4993,14 +5027,14 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="F7">
         <v>0.5</v>
       </c>
       <c r="G7">
         <f>D6</f>
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5016,14 +5050,14 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="F8">
         <v>1.5</v>
       </c>
       <c r="G8">
         <f>D6</f>
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5039,14 +5073,14 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="F9">
         <v>1.5</v>
       </c>
       <c r="G9">
         <f>D7</f>
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5055,7 +5089,7 @@
       </c>
       <c r="G10">
         <f>D7</f>
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5064,25 +5098,39 @@
       </c>
       <c r="G11">
         <f>D8</f>
-        <v>0</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>C8-C7</f>
+        <v>1.23</v>
+      </c>
       <c r="F12">
         <v>3.5</v>
       </c>
       <c r="G12">
         <f>D8</f>
-        <v>0</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f>B12-1.23</f>
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>3.5</v>
       </c>
       <c r="G13">
         <f>D9</f>
-        <v>0</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5091,7 +5139,7 @@
       </c>
       <c r="G14">
         <f>D9</f>
-        <v>0</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5104,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5161,7 +5209,7 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D26" si="1">C23-B23*B$19</f>
-        <v>-0.37000000000000011</v>
+        <v>1.23</v>
       </c>
       <c r="F23">
         <v>0.5</v>
@@ -5184,14 +5232,14 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-0.61699999999999999</v>
+        <v>2.5830000000000002</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
       <c r="G24">
         <f>D23</f>
-        <v>-0.37000000000000011</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5207,14 +5255,14 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-0.61800000000000122</v>
+        <v>4.1819999999999995</v>
       </c>
       <c r="F25">
         <v>1.5</v>
       </c>
       <c r="G25">
         <f>D23</f>
-        <v>-0.37000000000000011</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5230,14 +5278,14 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-1.4800000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="F26">
         <v>1.5</v>
       </c>
       <c r="G26">
         <f>D24</f>
-        <v>-0.61699999999999999</v>
+        <v>2.5830000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5246,7 +5294,7 @@
       </c>
       <c r="G27">
         <f>D24</f>
-        <v>-0.61699999999999999</v>
+        <v>2.5830000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5255,25 +5303,39 @@
       </c>
       <c r="G28">
         <f>D25</f>
-        <v>-0.61800000000000122</v>
+        <v>4.1819999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f>C25-C24</f>
+        <v>1.5989999999999993</v>
+      </c>
       <c r="F29">
         <v>3.5</v>
       </c>
       <c r="G29">
         <f>D25</f>
-        <v>-0.61800000000000122</v>
+        <v>4.1819999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f>B29-1.23</f>
+        <v>0.36899999999999933</v>
+      </c>
       <c r="F30">
         <v>3.5</v>
       </c>
       <c r="G30">
         <f>D26</f>
-        <v>-1.4800000000000004</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5282,7 +5344,7 @@
       </c>
       <c r="G31">
         <f>D26</f>
-        <v>-1.4800000000000004</v>
+        <v>4.92</v>
       </c>
     </row>
   </sheetData>

--- a/LimitingPotentialToyExample.xlsx
+++ b/LimitingPotentialToyExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-16600" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="-16600" windowWidth="25600" windowHeight="28240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ORR" sheetId="1" r:id="rId1"/>
@@ -274,11 +274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077840864"/>
-        <c:axId val="-2077956560"/>
+        <c:axId val="-2123907104"/>
+        <c:axId val="-2123900944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2077840864"/>
+        <c:axId val="-2123907104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,12 +391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077956560"/>
+        <c:crossAx val="-2123900944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077956560"/>
+        <c:axId val="-2123900944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077840864"/>
+        <c:crossAx val="-2123907104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -708,11 +708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097656208"/>
-        <c:axId val="2108144384"/>
+        <c:axId val="2089009696"/>
+        <c:axId val="2146164080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097656208"/>
+        <c:axId val="2089009696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,12 +825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108144384"/>
+        <c:crossAx val="2146164080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108144384"/>
+        <c:axId val="2146164080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097656208"/>
+        <c:crossAx val="2089009696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1142,11 +1142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136836448"/>
-        <c:axId val="-2136098032"/>
+        <c:axId val="2142525024"/>
+        <c:axId val="2118588272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136836448"/>
+        <c:axId val="2142525024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,12 +1259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136098032"/>
+        <c:crossAx val="2118588272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136098032"/>
+        <c:axId val="2118588272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136836448"/>
+        <c:crossAx val="2142525024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1576,11 +1576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110728816"/>
-        <c:axId val="2110258496"/>
+        <c:axId val="2143522368"/>
+        <c:axId val="2143737168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110728816"/>
+        <c:axId val="2143522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,12 +1693,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110258496"/>
+        <c:crossAx val="2143737168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110258496"/>
+        <c:axId val="2143737168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110728816"/>
+        <c:crossAx val="2143522368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4489,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4672,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <f>C7-C8</f>
+        <f>C8-C9</f>
         <v>1.23</v>
       </c>
       <c r="F12">
@@ -4688,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <f>B12-1.23</f>
+        <f>1.23-B12</f>
         <v>0</v>
       </c>
       <c r="F13">
@@ -4877,8 +4877,8 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <f>C24-C25</f>
-        <v>1.5989999999999993</v>
+        <f>C25-C26</f>
+        <v>0.73800000000000043</v>
       </c>
       <c r="F29">
         <v>3.5</v>
@@ -4893,8 +4893,8 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <f>B29-1.23</f>
-        <v>0.36899999999999933</v>
+        <f>1.23-B29</f>
+        <v>0.49199999999999955</v>
       </c>
       <c r="F30">
         <v>3.5</v>
@@ -4923,8 +4923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
